--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sajat\bevezetes_r\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hermaat.pte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -70,6 +70,60 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>szam</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Talpra magyar, hí a haza!</t>
+  </si>
+  <si>
+    <t>Itt az idő, most vagy soha!</t>
+  </si>
+  <si>
+    <t>Rabok legyünk vagy szabadok?</t>
+  </si>
+  <si>
+    <t>Ez a kérdés, válasszatok! –</t>
+  </si>
+  <si>
+    <t>A magyarok istenére</t>
+  </si>
+  <si>
+    <t>Esküszünk,</t>
+  </si>
+  <si>
+    <t>Esküszünk hogy rabok tovább</t>
+  </si>
+  <si>
+    <t>Nem leszünk!</t>
+  </si>
+  <si>
+    <t>Rabok voltunk mostanáig,</t>
+  </si>
+  <si>
+    <t>Kárhozottak ősapáink,</t>
+  </si>
+  <si>
+    <t>Kik szabadon éltek-haltak,</t>
+  </si>
+  <si>
+    <t>Szolgaföldben nem nyughatnak.</t>
+  </si>
+  <si>
+    <t>szoveg</t>
+  </si>
+  <si>
+    <t>Esküszünk, hogy rabok tovább</t>
+  </si>
+  <si>
+    <t>Nem leszünk</t>
   </si>
 </sst>
 </file>
@@ -641,15 +695,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,8 +719,17 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -676,8 +742,17 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -690,8 +765,17 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -704,8 +788,17 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -718,8 +811,17 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -732,8 +834,17 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -746,8 +857,17 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -760,8 +880,17 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -774,8 +903,17 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -788,8 +926,17 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -802,8 +949,17 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -816,8 +972,17 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -830,8 +995,17 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -844,8 +1018,17 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -858,8 +1041,17 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -872,8 +1064,17 @@
       <c r="D16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -885,6 +1086,15 @@
       </c>
       <c r="D17" t="s">
         <v>12</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
